--- a/BackTest/2019-10-28 BackTest OMG.xlsx
+++ b/BackTest/2019-10-28 BackTest OMG.xlsx
@@ -451,20 +451,14 @@
         <v>1040</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>1039</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>1040.333333333333</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>1040</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>1040</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>1039</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>1040.666666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>1042</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>1043</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>1049</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +626,14 @@
         <v>1046.333333333333</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>1048</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,20 +661,14 @@
         <v>1047</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>1051</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -738,20 +696,14 @@
         <v>1049.666666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>1055</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -779,20 +731,14 @@
         <v>1052</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>1055</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -820,20 +766,14 @@
         <v>1055.666666666667</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>1055</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -861,20 +801,14 @@
         <v>1056.333333333333</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>1059</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -902,20 +836,14 @@
         <v>1059.666666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>1059</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -943,20 +871,14 @@
         <v>1062.666666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>1061</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -984,20 +906,14 @@
         <v>1065.666666666667</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>1064</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1025,20 +941,14 @@
         <v>1067</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>1066</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1066,20 +976,14 @@
         <v>1069</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>1068</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1107,20 +1011,14 @@
         <v>1069.666666666667</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>1071</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1155,11 +1053,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1194,11 +1088,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1233,11 +1123,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1272,11 +1158,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1311,11 +1193,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1350,11 +1228,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1389,11 +1263,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1428,11 +1298,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1467,11 +1333,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1506,11 +1368,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1545,11 +1403,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1584,11 +1438,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1623,11 +1473,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1662,11 +1508,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1701,11 +1543,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1740,11 +1578,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1779,11 +1613,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1818,11 +1648,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1857,11 +1683,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1896,11 +1718,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1935,11 +1753,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1974,11 +1788,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2013,11 +1823,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2052,11 +1858,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2091,11 +1893,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2130,11 +1928,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2169,11 +1963,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2208,11 +1998,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2247,11 +2033,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2286,11 +2068,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2325,11 +2103,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2364,11 +2138,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2403,11 +2173,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2442,11 +2208,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2481,11 +2243,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2520,11 +2278,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2559,11 +2313,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2598,11 +2348,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2637,11 +2383,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2676,11 +2418,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2715,11 +2453,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2754,11 +2488,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2793,11 +2523,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2832,11 +2558,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2871,11 +2593,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2910,11 +2628,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2949,11 +2663,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2988,11 +2698,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3027,11 +2733,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3066,11 +2768,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3101,16 +2799,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3138,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -3173,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -5270,13 +4966,17 @@
         <v>1090.666666666667</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>1090</v>
+      </c>
+      <c r="K131" t="n">
+        <v>1090</v>
+      </c>
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
@@ -5305,14 +5005,22 @@
         <v>1097.333333333333</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>1096</v>
+      </c>
+      <c r="K132" t="n">
+        <v>1090</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5340,14 +5048,22 @@
         <v>1104.666666666667</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>1106</v>
+      </c>
+      <c r="K133" t="n">
+        <v>1090</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5375,13 +5091,17 @@
         <v>1109.333333333333</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>1112</v>
+      </c>
+      <c r="K134" t="n">
+        <v>1112</v>
+      </c>
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
@@ -5410,14 +5130,22 @@
         <v>1112.333333333333</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>1110</v>
+      </c>
+      <c r="K135" t="n">
+        <v>1112</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5445,14 +5173,22 @@
         <v>1113.666666666667</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>1115</v>
+      </c>
+      <c r="K136" t="n">
+        <v>1112</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5480,14 +5216,22 @@
         <v>1117.333333333333</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>1116</v>
+      </c>
+      <c r="K137" t="n">
+        <v>1112</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5521,8 +5265,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1112</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5556,8 +5306,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1112</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5591,8 +5347,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1112</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5626,8 +5388,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1112</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5661,8 +5429,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1112</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5696,8 +5470,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1112</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5731,8 +5511,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1112</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5766,8 +5552,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1112</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5801,8 +5593,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1112</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5836,8 +5634,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1112</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5871,8 +5675,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1112</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5906,8 +5716,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1112</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5941,8 +5757,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1112</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5976,8 +5798,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1112</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6011,8 +5839,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1112</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6046,8 +5880,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1112</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6081,8 +5921,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1112</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6116,8 +5962,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1112</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6148,13 +6000,19 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1112</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M156" t="n">
-        <v>1</v>
+        <v>1.066942446043166</v>
       </c>
     </row>
     <row r="157">
@@ -6183,7 +6041,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
@@ -6218,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
@@ -6253,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
@@ -6288,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
@@ -7440,14 +7298,20 @@
         <v>1122.333333333333</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>1121</v>
+      </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7475,14 +7339,20 @@
         <v>1123</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>1124</v>
+      </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7510,14 +7380,20 @@
         <v>1125.333333333333</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>1124</v>
+      </c>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7552,7 +7428,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7587,7 +7467,11 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7615,14 +7499,20 @@
         <v>1128.666666666667</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>1128</v>
+      </c>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7650,14 +7540,20 @@
         <v>1133.333333333333</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>1136</v>
+      </c>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7685,14 +7581,20 @@
         <v>1132</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>1136</v>
+      </c>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7720,14 +7622,20 @@
         <v>1131.333333333333</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>1124</v>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7762,7 +7670,11 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7797,7 +7709,11 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7832,7 +7748,11 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7867,7 +7787,11 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7902,7 +7826,11 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7937,7 +7865,11 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7972,7 +7904,11 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8007,7 +7943,11 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8042,7 +7982,11 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8077,7 +8021,11 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8112,7 +8060,11 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8147,7 +8099,11 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8182,7 +8138,11 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8217,7 +8177,11 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8252,7 +8216,11 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8287,7 +8255,11 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8322,7 +8294,11 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8357,7 +8333,11 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8392,7 +8372,11 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8427,7 +8411,11 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8462,7 +8450,11 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8497,7 +8489,11 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8532,7 +8528,11 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8567,7 +8567,11 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8602,7 +8606,11 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8637,7 +8645,11 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8672,7 +8684,11 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8707,7 +8723,11 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8742,7 +8762,11 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8777,7 +8801,11 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8812,7 +8840,11 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8847,7 +8879,11 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8882,7 +8918,11 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8917,7 +8957,11 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8952,7 +8996,11 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8987,7 +9035,11 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9022,7 +9074,11 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9057,7 +9113,11 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9092,7 +9152,11 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9127,7 +9191,11 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9162,7 +9230,11 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9197,7 +9269,11 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9232,7 +9308,11 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9267,7 +9347,11 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9302,7 +9386,11 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9337,7 +9425,11 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9372,7 +9464,11 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9407,7 +9503,11 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9442,7 +9542,11 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9477,7 +9581,11 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9512,7 +9620,11 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9547,7 +9659,11 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9582,7 +9698,11 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9617,7 +9737,11 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9652,7 +9776,11 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9687,7 +9815,11 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9722,7 +9854,11 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9757,7 +9893,11 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9785,14 +9925,20 @@
         <v>1120</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>1122</v>
+      </c>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9820,14 +9966,20 @@
         <v>1122</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>1122</v>
+      </c>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9855,14 +10007,20 @@
         <v>1122</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>1122</v>
+      </c>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9890,14 +10048,20 @@
         <v>1125</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>1122</v>
+      </c>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -9932,7 +10096,11 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -9967,7 +10135,11 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10002,7 +10174,11 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10037,7 +10213,11 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10072,7 +10252,11 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10107,7 +10291,11 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10142,7 +10330,11 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10177,7 +10369,11 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10212,7 +10408,11 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10247,7 +10447,11 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10282,7 +10486,11 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10317,7 +10525,11 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10352,7 +10564,11 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10387,7 +10603,11 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10422,7 +10642,11 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10457,7 +10681,11 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10492,7 +10720,11 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10527,7 +10759,11 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10562,7 +10798,11 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10597,7 +10837,11 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10632,7 +10876,11 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10667,7 +10915,11 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10702,7 +10954,11 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10737,7 +10993,11 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10772,7 +11032,11 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -10807,7 +11071,11 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -10842,7 +11110,11 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -10877,7 +11149,11 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -10912,7 +11188,11 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -10947,7 +11227,11 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -10982,7 +11266,11 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11017,7 +11305,11 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11052,7 +11344,11 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11087,7 +11383,11 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11122,7 +11422,11 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11157,7 +11461,11 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11192,7 +11500,11 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11227,7 +11539,11 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11262,7 +11578,11 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11297,7 +11617,11 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11332,7 +11656,11 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11367,7 +11695,11 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11402,7 +11734,11 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11437,7 +11773,11 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11472,7 +11812,11 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11507,7 +11851,11 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11542,7 +11890,11 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11577,7 +11929,11 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11612,7 +11968,11 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11647,7 +12007,11 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11682,7 +12046,11 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -11717,7 +12085,11 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -11752,7 +12124,11 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -11787,7 +12163,11 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -11822,7 +12202,11 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -11857,7 +12241,11 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -11892,7 +12280,11 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -11927,7 +12319,11 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -11962,7 +12358,11 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -11997,7 +12397,11 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -12032,7 +12436,11 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -12067,7 +12475,11 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12102,7 +12514,11 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12137,7 +12553,11 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12172,7 +12592,11 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12207,7 +12631,11 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12242,7 +12670,11 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -12277,7 +12709,11 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12312,7 +12748,11 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12347,7 +12787,11 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12382,7 +12826,11 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12417,7 +12865,11 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12452,7 +12904,11 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12487,7 +12943,11 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -12522,7 +12982,11 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -12557,7 +13021,11 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -12592,7 +13060,11 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -12627,7 +13099,11 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -12662,7 +13138,11 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -12697,7 +13177,11 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -12732,7 +13216,11 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -12767,7 +13255,11 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -12802,7 +13294,11 @@
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -12837,7 +13333,11 @@
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -12872,7 +13372,11 @@
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -12907,7 +13411,11 @@
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -12942,7 +13450,11 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -12977,7 +13489,11 @@
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -13012,7 +13528,11 @@
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13047,7 +13567,11 @@
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13082,7 +13606,11 @@
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13117,7 +13645,11 @@
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13152,7 +13684,11 @@
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13187,7 +13723,11 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13222,7 +13762,11 @@
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13257,7 +13801,11 @@
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -13292,7 +13840,11 @@
       </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13327,7 +13879,11 @@
       </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13362,7 +13918,11 @@
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13397,7 +13957,11 @@
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -13432,7 +13996,11 @@
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -13467,7 +14035,11 @@
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -13502,7 +14074,11 @@
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -13537,7 +14113,11 @@
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -13572,7 +14152,11 @@
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -13607,7 +14191,11 @@
       </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -13642,7 +14230,11 @@
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -13677,7 +14269,11 @@
       </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -13712,7 +14308,11 @@
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -13747,7 +14347,11 @@
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -13782,7 +14386,11 @@
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -13817,7 +14425,11 @@
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -13852,7 +14464,11 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -13887,7 +14503,11 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -13922,7 +14542,11 @@
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -13957,7 +14581,11 @@
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -13992,7 +14620,11 @@
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -14027,7 +14659,11 @@
       </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -14062,7 +14698,11 @@
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -14097,7 +14737,11 @@
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -14132,7 +14776,11 @@
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -14167,7 +14815,11 @@
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -14202,7 +14854,11 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -14237,7 +14893,11 @@
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -14272,7 +14932,11 @@
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -14307,7 +14971,11 @@
       </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14342,7 +15010,11 @@
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -14377,7 +15049,11 @@
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -14412,7 +15088,11 @@
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -14447,7 +15127,11 @@
       </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -14482,7 +15166,11 @@
       </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -14517,7 +15205,11 @@
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -14552,7 +15244,11 @@
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -14587,7 +15283,11 @@
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -14622,7 +15322,11 @@
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -14657,7 +15361,11 @@
       </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -14692,7 +15400,11 @@
       </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr"/>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -14727,7 +15439,11 @@
       </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr"/>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -14762,7 +15478,11 @@
       </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr"/>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -14797,7 +15517,11 @@
       </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr"/>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -14832,7 +15556,11 @@
       </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr"/>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -14867,7 +15595,11 @@
       </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr"/>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -14902,7 +15634,11 @@
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr"/>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -14937,7 +15673,11 @@
       </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -14972,7 +15712,11 @@
       </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -15007,7 +15751,11 @@
       </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -15042,7 +15790,11 @@
       </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -15077,7 +15829,11 @@
       </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -15112,7 +15868,11 @@
       </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -15147,7 +15907,11 @@
       </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -15182,7 +15946,11 @@
       </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -15217,7 +15985,11 @@
       </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -15252,7 +16024,11 @@
       </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -15287,7 +16063,11 @@
       </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15322,7 +16102,11 @@
       </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -15357,7 +16141,11 @@
       </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -15392,7 +16180,11 @@
       </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -15427,7 +16219,11 @@
       </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -15462,7 +16258,11 @@
       </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -15497,7 +16297,11 @@
       </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr"/>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -15532,7 +16336,11 @@
       </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -15567,7 +16375,11 @@
       </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -15602,7 +16414,11 @@
       </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr"/>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -15637,7 +16453,11 @@
       </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -15672,7 +16492,11 @@
       </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr"/>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -15707,7 +16531,11 @@
       </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr"/>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -15742,7 +16570,11 @@
       </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr"/>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -15777,7 +16609,11 @@
       </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr"/>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -15812,7 +16648,11 @@
       </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr"/>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -15847,7 +16687,11 @@
       </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr"/>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -15882,7 +16726,11 @@
       </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr"/>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -15917,7 +16765,11 @@
       </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr"/>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -15952,7 +16804,11 @@
       </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr"/>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -15987,7 +16843,11 @@
       </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr"/>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -16022,7 +16882,11 @@
       </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr"/>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -16057,7 +16921,11 @@
       </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr"/>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -16092,7 +16960,11 @@
       </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr"/>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -16127,7 +16999,11 @@
       </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr"/>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -16162,7 +17038,11 @@
       </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr"/>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -16197,7 +17077,11 @@
       </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr"/>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -16232,7 +17116,11 @@
       </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr"/>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -16267,7 +17155,11 @@
       </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr"/>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -16302,7 +17194,11 @@
       </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr"/>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -16337,7 +17233,11 @@
       </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr"/>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -16372,7 +17272,11 @@
       </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr"/>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -16407,7 +17311,11 @@
       </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr"/>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -16442,7 +17350,11 @@
       </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr"/>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -16477,7 +17389,11 @@
       </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr"/>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -16512,7 +17428,11 @@
       </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr"/>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -16547,7 +17467,11 @@
       </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr"/>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -16582,7 +17506,11 @@
       </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr"/>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -16617,7 +17545,11 @@
       </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr"/>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -16652,7 +17584,11 @@
       </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr"/>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -16687,7 +17623,11 @@
       </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr"/>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -16722,7 +17662,11 @@
       </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr"/>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -16757,7 +17701,11 @@
       </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr"/>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -16792,7 +17740,11 @@
       </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr"/>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -16827,7 +17779,11 @@
       </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr"/>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -16862,7 +17818,11 @@
       </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr"/>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -16897,7 +17857,11 @@
       </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr"/>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -16932,7 +17896,11 @@
       </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr"/>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -16967,7 +17935,11 @@
       </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr"/>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -17002,7 +17974,11 @@
       </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr"/>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -17037,7 +18013,11 @@
       </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr"/>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -17072,7 +18052,11 @@
       </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr"/>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M468" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-28 BackTest OMG.xlsx
+++ b/BackTest/2019-10-28 BackTest OMG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>22998.88644541242</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>22998.88644541242</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1052</v>
@@ -521,7 +521,7 @@
         <v>22995.17364541242</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1052</v>
@@ -562,7 +562,7 @@
         <v>23324.79304541242</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>1050</v>
@@ -603,7 +603,7 @@
         <v>23121.92594541242</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1051</v>
@@ -644,7 +644,7 @@
         <v>22849.71404541242</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1050</v>
@@ -685,7 +685,7 @@
         <v>23291.64214541242</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1042</v>
@@ -726,7 +726,7 @@
         <v>23492.60704541242</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>1043</v>
@@ -767,7 +767,7 @@
         <v>24182.25584541242</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>1052</v>
@@ -808,7 +808,7 @@
         <v>24182.25584541242</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>1053</v>
@@ -849,7 +849,7 @@
         <v>23962.46524541242</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>1053</v>
@@ -890,7 +890,7 @@
         <v>23986.42814541242</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>1047</v>
@@ -931,7 +931,7 @@
         <v>23980.42814541242</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>1048</v>
@@ -972,7 +972,7 @@
         <v>23901.85274541242</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>1040</v>
@@ -1013,7 +1013,7 @@
         <v>23901.85274541242</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>1039</v>
@@ -1054,7 +1054,7 @@
         <v>23901.85274541242</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>1039</v>
@@ -1095,7 +1095,7 @@
         <v>23901.85274541242</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>1039</v>
@@ -1136,7 +1136,7 @@
         <v>24155.90204541241</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>1039</v>
@@ -1177,7 +1177,7 @@
         <v>25500.32834541241</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>1044</v>
@@ -1218,7 +1218,7 @@
         <v>25500.32834541241</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>1051</v>
@@ -1259,7 +1259,7 @@
         <v>25771.60404541241</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>1051</v>
@@ -1300,7 +1300,7 @@
         <v>26643.02574541241</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>1057</v>
@@ -1341,7 +1341,7 @@
         <v>26654.07994541241</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>1059</v>
@@ -1382,9 +1382,11 @@
         <v>27290.98604541241</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1062</v>
+      </c>
       <c r="J25" t="n">
         <v>1052</v>
       </c>
@@ -1421,9 +1423,11 @@
         <v>24779.84074541241</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1064</v>
+      </c>
       <c r="J26" t="n">
         <v>1052</v>
       </c>
@@ -1460,9 +1464,11 @@
         <v>23260.93714541241</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1060</v>
+      </c>
       <c r="J27" t="n">
         <v>1052</v>
       </c>
@@ -1499,9 +1505,11 @@
         <v>23260.93714541241</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1058</v>
+      </c>
       <c r="J28" t="n">
         <v>1052</v>
       </c>
@@ -1538,9 +1546,11 @@
         <v>23260.93714541241</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1058</v>
+      </c>
       <c r="J29" t="n">
         <v>1052</v>
       </c>
@@ -1577,9 +1587,11 @@
         <v>23552.05564541241</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1058</v>
+      </c>
       <c r="J30" t="n">
         <v>1052</v>
       </c>
@@ -1616,9 +1628,11 @@
         <v>23246.58084541241</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1063</v>
+      </c>
       <c r="J31" t="n">
         <v>1052</v>
       </c>
@@ -1655,9 +1669,11 @@
         <v>23246.58084541241</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1050</v>
+      </c>
       <c r="J32" t="n">
         <v>1052</v>
       </c>
@@ -1694,9 +1710,11 @@
         <v>24116.26324541241</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1050</v>
+      </c>
       <c r="J33" t="n">
         <v>1052</v>
       </c>
@@ -1733,9 +1751,11 @@
         <v>23964.77824541241</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1053</v>
+      </c>
       <c r="J34" t="n">
         <v>1052</v>
       </c>
@@ -1772,9 +1792,11 @@
         <v>24107.48354541241</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1052</v>
+      </c>
       <c r="J35" t="n">
         <v>1052</v>
       </c>
@@ -1811,9 +1833,11 @@
         <v>23607.48354541241</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1053</v>
+      </c>
       <c r="J36" t="n">
         <v>1052</v>
       </c>
@@ -1850,9 +1874,11 @@
         <v>23807.48354541241</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1052</v>
+      </c>
       <c r="J37" t="n">
         <v>1052</v>
       </c>
@@ -1889,9 +1915,11 @@
         <v>23664.48354541241</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1055</v>
+      </c>
       <c r="J38" t="n">
         <v>1052</v>
       </c>
@@ -1928,9 +1956,11 @@
         <v>23664.48354541241</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1050</v>
+      </c>
       <c r="J39" t="n">
         <v>1052</v>
       </c>
@@ -1967,9 +1997,11 @@
         <v>23708.96064541241</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1050</v>
+      </c>
       <c r="J40" t="n">
         <v>1052</v>
       </c>
@@ -2006,9 +2038,11 @@
         <v>20826.16444541241</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1054</v>
+      </c>
       <c r="J41" t="n">
         <v>1052</v>
       </c>
@@ -2084,9 +2118,11 @@
         <v>20024.88634541241</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1050</v>
+      </c>
       <c r="J43" t="n">
         <v>1052</v>
       </c>
@@ -2123,9 +2159,11 @@
         <v>19141.50834541241</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1050</v>
+      </c>
       <c r="J44" t="n">
         <v>1052</v>
       </c>
@@ -2162,9 +2200,11 @@
         <v>19859.57014541241</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1048</v>
+      </c>
       <c r="J45" t="n">
         <v>1052</v>
       </c>
@@ -2201,9 +2241,11 @@
         <v>19412.56124541241</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1053</v>
+      </c>
       <c r="J46" t="n">
         <v>1052</v>
       </c>
@@ -2240,9 +2282,11 @@
         <v>19412.56124541241</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1052</v>
+      </c>
       <c r="J47" t="n">
         <v>1052</v>
       </c>
@@ -2279,9 +2323,11 @@
         <v>19498.77164541241</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1052</v>
+      </c>
       <c r="J48" t="n">
         <v>1052</v>
       </c>
@@ -2318,9 +2364,11 @@
         <v>19497.59454541241</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1053</v>
+      </c>
       <c r="J49" t="n">
         <v>1052</v>
       </c>
@@ -2474,9 +2522,11 @@
         <v>20478.60774541241</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1047</v>
+      </c>
       <c r="J53" t="n">
         <v>1052</v>
       </c>
@@ -2513,9 +2563,11 @@
         <v>20370.52454541241</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1051</v>
+      </c>
       <c r="J54" t="n">
         <v>1052</v>
       </c>
@@ -2552,9 +2604,11 @@
         <v>20370.52454541241</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1047</v>
+      </c>
       <c r="J55" t="n">
         <v>1052</v>
       </c>
@@ -2591,9 +2645,11 @@
         <v>18067.1533454124</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1047</v>
+      </c>
       <c r="J56" t="n">
         <v>1052</v>
       </c>
@@ -2630,9 +2686,11 @@
         <v>18067.1533454124</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1042</v>
+      </c>
       <c r="J57" t="n">
         <v>1052</v>
       </c>
@@ -2669,9 +2727,11 @@
         <v>18064.6296454124</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1042</v>
+      </c>
       <c r="J58" t="n">
         <v>1052</v>
       </c>
@@ -2708,9 +2768,11 @@
         <v>18064.6296454124</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1041</v>
+      </c>
       <c r="J59" t="n">
         <v>1052</v>
       </c>
@@ -2747,9 +2809,11 @@
         <v>17957.5089454124</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1041</v>
+      </c>
       <c r="J60" t="n">
         <v>1052</v>
       </c>
@@ -2786,7 +2850,7 @@
         <v>18458.0216454124</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>1039</v>
@@ -2827,7 +2891,7 @@
         <v>20252.1574454124</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>1040</v>
@@ -2868,7 +2932,7 @@
         <v>20238.9004454124</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>1042</v>
@@ -2909,7 +2973,7 @@
         <v>20593.6536454124</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>1038</v>
@@ -2950,9 +3014,11 @@
         <v>20593.7536454124</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1042</v>
+      </c>
       <c r="J65" t="n">
         <v>1052</v>
       </c>
@@ -2989,9 +3055,11 @@
         <v>19629.2818454124</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1049</v>
+      </c>
       <c r="J66" t="n">
         <v>1052</v>
       </c>
@@ -3028,9 +3096,11 @@
         <v>19623.2818454124</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1048</v>
+      </c>
       <c r="J67" t="n">
         <v>1052</v>
       </c>
@@ -3067,9 +3137,11 @@
         <v>21561.2818454124</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1044</v>
+      </c>
       <c r="J68" t="n">
         <v>1052</v>
       </c>
@@ -3106,9 +3178,11 @@
         <v>21261.2818454124</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1057</v>
+      </c>
       <c r="J69" t="n">
         <v>1052</v>
       </c>
@@ -3145,9 +3219,11 @@
         <v>21261.2818454124</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1055</v>
+      </c>
       <c r="J70" t="n">
         <v>1052</v>
       </c>
@@ -3184,9 +3260,11 @@
         <v>21310.6271454124</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1055</v>
+      </c>
       <c r="J71" t="n">
         <v>1052</v>
       </c>
@@ -4432,9 +4510,11 @@
         <v>38311.76444286297</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1096</v>
+      </c>
       <c r="J103" t="n">
         <v>1052</v>
       </c>
@@ -4510,9 +4590,11 @@
         <v>38376.38844286298</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1091</v>
+      </c>
       <c r="J105" t="n">
         <v>1052</v>
       </c>
@@ -4549,9 +4631,11 @@
         <v>39561.90254286298</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1096</v>
+      </c>
       <c r="J106" t="n">
         <v>1052</v>
       </c>
@@ -4588,9 +4672,11 @@
         <v>47007.52060335344</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1100</v>
+      </c>
       <c r="J107" t="n">
         <v>1052</v>
       </c>
@@ -4627,9 +4713,11 @@
         <v>45805.5973638439</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1104</v>
+      </c>
       <c r="J108" t="n">
         <v>1052</v>
       </c>
@@ -4666,9 +4754,11 @@
         <v>45886.70986384391</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1097</v>
+      </c>
       <c r="J109" t="n">
         <v>1052</v>
       </c>
@@ -4705,9 +4795,11 @@
         <v>51143.86766384391</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1101</v>
+      </c>
       <c r="J110" t="n">
         <v>1052</v>
       </c>
@@ -4744,9 +4836,11 @@
         <v>51743.86766384391</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1106</v>
+      </c>
       <c r="J111" t="n">
         <v>1052</v>
       </c>
@@ -8995,7 +9089,7 @@
         <v>83856.16307173463</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
@@ -9003,15 +9097,13 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L220" t="n">
-        <v>1.132832699619772</v>
-      </c>
-      <c r="M220" t="n">
-        <v>1.006666666666667</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9039,8 +9131,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9072,8 +9170,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9105,8 +9209,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9135,15 +9245,23 @@
         <v>82055.92317173463</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+        <v>1.131882129277567</v>
+      </c>
+      <c r="M224" t="n">
+        <v>1.006666666666667</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9168,7 +9286,7 @@
         <v>82055.43927173462</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -9201,7 +9319,7 @@
         <v>82027.46507173462</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -9234,7 +9352,7 @@
         <v>81753.89577173462</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -9267,7 +9385,7 @@
         <v>83029.62767173462</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -9300,7 +9418,7 @@
         <v>82898.22777173462</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -9333,7 +9451,7 @@
         <v>84023.46687173462</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -9366,7 +9484,7 @@
         <v>84433.65997173463</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -9399,7 +9517,7 @@
         <v>83820.19627173463</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -9432,7 +9550,7 @@
         <v>83820.19627173463</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9465,7 +9583,7 @@
         <v>84102.10717173463</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9498,7 +9616,7 @@
         <v>83182.35227173463</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9531,7 +9649,7 @@
         <v>83031.96867173463</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9564,7 +9682,7 @@
         <v>82718.62177173463</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9597,7 +9715,7 @@
         <v>85450.42337173464</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9630,7 +9748,7 @@
         <v>85450.42337173464</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9663,7 +9781,7 @@
         <v>85450.42337173464</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9696,7 +9814,7 @@
         <v>85450.42337173464</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9729,7 +9847,7 @@
         <v>85450.42337173464</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9762,7 +9880,7 @@
         <v>85450.42337173464</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9795,7 +9913,7 @@
         <v>85384.83107173463</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9861,7 +9979,7 @@
         <v>80494.96357173464</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9894,7 +10012,7 @@
         <v>78313.15807173464</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9927,7 +10045,7 @@
         <v>78347.77817173464</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9993,7 +10111,7 @@
         <v>82988.27567173463</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -10026,7 +10144,7 @@
         <v>82688.27567173463</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -10059,7 +10177,7 @@
         <v>82875.34447173463</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -10092,7 +10210,7 @@
         <v>82875.34447173463</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -10125,7 +10243,7 @@
         <v>82900.25807173463</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -10158,7 +10276,7 @@
         <v>82760.89394903959</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10191,7 +10309,7 @@
         <v>82765.40984903958</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10224,7 +10342,7 @@
         <v>82778.59394903958</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10257,7 +10375,7 @@
         <v>82778.59394903958</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10290,7 +10408,7 @@
         <v>80945.63484903958</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10323,7 +10441,7 @@
         <v>81656.44434903958</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10356,7 +10474,7 @@
         <v>81666.54434903958</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10389,7 +10507,7 @@
         <v>81644.67294903958</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10422,7 +10540,7 @@
         <v>81304.67294903958</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10455,7 +10573,7 @@
         <v>81399.97294903958</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10488,7 +10606,7 @@
         <v>81780.47294903958</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10554,7 +10672,7 @@
         <v>82450.93614903958</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10587,7 +10705,7 @@
         <v>82450.93614903958</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10620,7 +10738,7 @@
         <v>82450.93614903958</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10653,7 +10771,7 @@
         <v>82476.10314903958</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10950,7 +11068,7 @@
         <v>85628.47384903958</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10983,7 +11101,7 @@
         <v>85289.32384903959</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -11016,7 +11134,7 @@
         <v>85018.35314903958</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -11049,7 +11167,7 @@
         <v>85018.55314903958</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -11082,7 +11200,7 @@
         <v>84983.36864903958</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -11115,7 +11233,7 @@
         <v>85371.00864903958</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -11148,7 +11266,7 @@
         <v>85039.04874903958</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11181,7 +11299,7 @@
         <v>85039.04874903958</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11214,7 +11332,7 @@
         <v>84780.81224903958</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -11247,7 +11365,7 @@
         <v>84417.81224903958</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11280,7 +11398,7 @@
         <v>84089.01694903958</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11313,7 +11431,7 @@
         <v>83583.26234903958</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11346,7 +11464,7 @@
         <v>83602.09174903958</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11379,7 +11497,7 @@
         <v>83592.24094903958</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11412,7 +11530,7 @@
         <v>82830.50844903958</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11445,7 +11563,7 @@
         <v>82646.22124903958</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11478,7 +11596,7 @@
         <v>82656.22124903958</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11511,7 +11629,7 @@
         <v>82656.22124903958</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11544,7 +11662,7 @@
         <v>82847.16274903958</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11577,7 +11695,7 @@
         <v>81069.16424903958</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11610,7 +11728,7 @@
         <v>80946.32744903957</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11643,7 +11761,7 @@
         <v>80946.32744903957</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11676,7 +11794,7 @@
         <v>80945.32744903957</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11709,7 +11827,7 @@
         <v>80946.32744903957</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11742,7 +11860,7 @@
         <v>82266.87744903957</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11775,7 +11893,7 @@
         <v>79419.80574903957</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11808,7 +11926,7 @@
         <v>80464.29394903958</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11841,7 +11959,7 @@
         <v>79288.12364903958</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11874,7 +11992,7 @@
         <v>84117.04494903958</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11907,7 +12025,7 @@
         <v>84117.04494903958</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11940,7 +12058,7 @@
         <v>84113.76814903958</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11973,7 +12091,7 @@
         <v>84495.54494903958</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -12303,7 +12421,7 @@
         <v>83601.46124903958</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12336,7 +12454,7 @@
         <v>83601.46124903958</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12369,7 +12487,7 @@
         <v>83953.65594903959</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12402,7 +12520,7 @@
         <v>83953.65594903959</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12435,7 +12553,7 @@
         <v>83943.85594903959</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12468,7 +12586,7 @@
         <v>83943.85594903959</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12501,7 +12619,7 @@
         <v>84240.07154903958</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12633,7 +12751,7 @@
         <v>84169.21394903958</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12666,7 +12784,7 @@
         <v>84168.21394903958</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12699,7 +12817,7 @@
         <v>83848.60654903958</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -13887,7 +14005,7 @@
         <v>86408.20869370163</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13920,7 +14038,7 @@
         <v>86408.20869370163</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13953,7 +14071,7 @@
         <v>86758.17259370163</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13986,7 +14104,7 @@
         <v>86758.17259370163</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -14019,7 +14137,7 @@
         <v>86758.17259370163</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -14052,7 +14170,7 @@
         <v>86798.03119370164</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14085,7 +14203,7 @@
         <v>86798.03119370164</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14118,7 +14236,7 @@
         <v>86798.03119370164</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14151,7 +14269,7 @@
         <v>86854.63189370163</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14184,7 +14302,7 @@
         <v>87594.22109370164</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14217,7 +14335,7 @@
         <v>87594.22109370164</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14250,7 +14368,7 @@
         <v>89101.86999370164</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14283,7 +14401,7 @@
         <v>88946.74349370164</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14316,7 +14434,7 @@
         <v>90652.16499370163</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14349,7 +14467,7 @@
         <v>90652.16499370163</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14382,7 +14500,7 @@
         <v>90652.16499370163</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14415,7 +14533,7 @@
         <v>90652.16499370163</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14448,7 +14566,7 @@
         <v>90763.00039370163</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14481,7 +14599,7 @@
         <v>90587.64779370163</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14514,7 +14632,7 @@
         <v>90644.72669370162</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14547,7 +14665,7 @@
         <v>90642.79609370162</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14580,7 +14698,7 @@
         <v>91668.84249370162</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14613,7 +14731,7 @@
         <v>92733.74094444298</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14646,7 +14764,7 @@
         <v>93905.00932152056</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14679,7 +14797,7 @@
         <v>91366.40842152055</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14712,7 +14830,7 @@
         <v>92177.59172152056</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14745,7 +14863,7 @@
         <v>92177.59172152056</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14778,7 +14896,7 @@
         <v>91945.89172152056</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14811,7 +14929,7 @@
         <v>92055.48412152055</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14844,7 +14962,7 @@
         <v>92139.58412152056</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14877,7 +14995,7 @@
         <v>93693.18762152056</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14910,7 +15028,7 @@
         <v>93693.18762152056</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14943,7 +15061,7 @@
         <v>99368.17272152056</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14976,7 +15094,7 @@
         <v>99368.17272152056</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15009,7 +15127,7 @@
         <v>97666.21162152056</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15042,7 +15160,7 @@
         <v>96419.48442152057</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15075,7 +15193,7 @@
         <v>95473.22222152057</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15108,7 +15226,7 @@
         <v>95255.24882152057</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15141,7 +15259,7 @@
         <v>98782.95062152056</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15174,7 +15292,7 @@
         <v>98782.95062152056</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15207,7 +15325,7 @@
         <v>98782.95062152056</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15240,7 +15358,7 @@
         <v>98750.34352152057</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15273,7 +15391,7 @@
         <v>98196.92972152057</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15306,7 +15424,7 @@
         <v>98179.72972152058</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15339,7 +15457,7 @@
         <v>97935.22972152058</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15372,7 +15490,7 @@
         <v>98414.32312152057</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15405,7 +15523,7 @@
         <v>98390.50392152058</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -16230,7 +16348,7 @@
         <v>95124.76972152058</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16296,7 +16414,7 @@
         <v>95124.76972152058</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16329,7 +16447,7 @@
         <v>95360.76972152058</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16758,7 +16876,7 @@
         <v>95898.07842152058</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16890,7 +17008,7 @@
         <v>95816.46572152058</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16923,7 +17041,7 @@
         <v>95543.04932152058</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16956,7 +17074,7 @@
         <v>92363.79742152058</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16989,7 +17107,7 @@
         <v>92042.29742152058</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17055,7 +17173,7 @@
         <v>92627.48782152058</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17088,7 +17206,7 @@
         <v>92566.90932152058</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17121,7 +17239,7 @@
         <v>92567.20232152058</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17154,7 +17272,7 @@
         <v>90024.51702152059</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17187,7 +17305,7 @@
         <v>90024.51702152059</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17220,7 +17338,7 @@
         <v>90111.10712152059</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17253,7 +17371,7 @@
         <v>89854.26462152059</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17286,7 +17404,7 @@
         <v>89838.02072152059</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17319,7 +17437,7 @@
         <v>90723.54862152059</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17352,7 +17470,7 @@
         <v>90722.97862152058</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17385,7 +17503,7 @@
         <v>91272.63412152058</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17418,7 +17536,7 @@
         <v>93690.42272152058</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17451,7 +17569,7 @@
         <v>93647.42272152058</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17484,7 +17602,7 @@
         <v>93647.42272152058</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17517,7 +17635,7 @@
         <v>94875.35692152058</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17550,7 +17668,7 @@
         <v>94389.67272152058</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17583,7 +17701,7 @@
         <v>94195.67272152058</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17616,7 +17734,7 @@
         <v>93936.72272152058</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17649,7 +17767,7 @@
         <v>93937.69642879489</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17682,7 +17800,7 @@
         <v>93926.72186739139</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17715,7 +17833,7 @@
         <v>93626.72186739139</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -18375,7 +18493,7 @@
         <v>95937.18976739138</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18408,7 +18526,7 @@
         <v>96079.65666739138</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18441,7 +18559,7 @@
         <v>96079.65666739138</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18474,7 +18592,7 @@
         <v>95499.62156739138</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18540,7 +18658,7 @@
         <v>95535.44536739138</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18573,7 +18691,7 @@
         <v>95536.52036739138</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18606,7 +18724,7 @@
         <v>95637.52036739138</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18639,7 +18757,7 @@
         <v>95384.40656739137</v>
       </c>
       <c r="H512" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18672,7 +18790,7 @@
         <v>95282.77446739137</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18705,7 +18823,7 @@
         <v>95382.77446739137</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18738,7 +18856,7 @@
         <v>94864.77446739137</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18771,7 +18889,7 @@
         <v>94993.41915917219</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18804,7 +18922,7 @@
         <v>94993.41915917219</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18837,7 +18955,7 @@
         <v>94972.76015917219</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18870,7 +18988,7 @@
         <v>92381.73985917219</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18903,7 +19021,7 @@
         <v>92389.22105917218</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18936,7 +19054,7 @@
         <v>92615.56615917219</v>
       </c>
       <c r="H521" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18969,7 +19087,7 @@
         <v>92547.56615917219</v>
       </c>
       <c r="H522" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19002,7 +19120,7 @@
         <v>90796.56375917219</v>
       </c>
       <c r="H523" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19035,7 +19153,7 @@
         <v>90594.2633591722</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19068,7 +19186,7 @@
         <v>91832.5882591722</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19101,7 +19219,7 @@
         <v>90215.84045917221</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19134,7 +19252,7 @@
         <v>87355.40425917221</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19167,7 +19285,7 @@
         <v>87272.67965917221</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19200,7 +19318,7 @@
         <v>87760.6317591722</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19233,7 +19351,7 @@
         <v>87339.36035917221</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19266,7 +19384,7 @@
         <v>87325.36035917221</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19299,7 +19417,7 @@
         <v>87325.36035917221</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19332,7 +19450,7 @@
         <v>87325.36035917221</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19365,7 +19483,7 @@
         <v>86441.36035917221</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19398,7 +19516,7 @@
         <v>86571.7508591722</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19431,7 +19549,7 @@
         <v>83832.0900591722</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19464,7 +19582,7 @@
         <v>83832.0900591722</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19475,6 +19593,6 @@
       <c r="M537" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest OMG.xlsx
+++ b/BackTest/2019-10-28 BackTest OMG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1300,11 +1300,9 @@
         <v>26643.02574541241</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1057</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>1052</v>
       </c>
@@ -1341,11 +1339,9 @@
         <v>26654.07994541241</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1059</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>1052</v>
       </c>
@@ -1382,11 +1378,9 @@
         <v>27290.98604541241</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>1052</v>
       </c>
@@ -1423,11 +1417,9 @@
         <v>24779.84074541241</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1064</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>1052</v>
       </c>
@@ -1464,11 +1456,9 @@
         <v>23260.93714541241</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1060</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>1052</v>
       </c>
@@ -1505,11 +1495,9 @@
         <v>23260.93714541241</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1058</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>1052</v>
       </c>
@@ -1546,11 +1534,9 @@
         <v>23260.93714541241</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1058</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>1052</v>
       </c>
@@ -1587,11 +1573,9 @@
         <v>23552.05564541241</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1058</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>1052</v>
       </c>
@@ -1628,11 +1612,9 @@
         <v>23246.58084541241</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1063</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>1052</v>
       </c>
@@ -1669,11 +1651,9 @@
         <v>23246.58084541241</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>1052</v>
       </c>
@@ -1710,11 +1690,9 @@
         <v>24116.26324541241</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>1052</v>
       </c>
@@ -1751,11 +1729,9 @@
         <v>23964.77824541241</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1053</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>1052</v>
       </c>
@@ -1792,11 +1768,9 @@
         <v>24107.48354541241</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1052</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>1052</v>
       </c>
@@ -1833,11 +1807,9 @@
         <v>23607.48354541241</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1053</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
         <v>1052</v>
       </c>
@@ -1874,11 +1846,9 @@
         <v>23807.48354541241</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1052</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
         <v>1052</v>
       </c>
@@ -1915,11 +1885,9 @@
         <v>23664.48354541241</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1055</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
         <v>1052</v>
       </c>
@@ -1956,11 +1924,9 @@
         <v>23664.48354541241</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
         <v>1052</v>
       </c>
@@ -2038,11 +2004,9 @@
         <v>20826.16444541241</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1054</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
         <v>1052</v>
       </c>
@@ -2159,11 +2123,9 @@
         <v>19141.50834541241</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
         <v>1052</v>
       </c>
@@ -2405,9 +2367,11 @@
         <v>19464.48574541241</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1052</v>
+      </c>
       <c r="J50" t="n">
         <v>1052</v>
       </c>
@@ -2444,9 +2408,11 @@
         <v>19466.48574541241</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1051</v>
+      </c>
       <c r="J51" t="n">
         <v>1052</v>
       </c>
@@ -2483,9 +2449,11 @@
         <v>19466.23864541241</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1056</v>
+      </c>
       <c r="J52" t="n">
         <v>1052</v>
       </c>
@@ -3301,9 +3269,11 @@
         <v>21712.4687454124</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1059</v>
+      </c>
       <c r="J72" t="n">
         <v>1052</v>
       </c>
@@ -4042,7 +4012,7 @@
         <v>38312.0109792266</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
@@ -4050,11 +4020,11 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1</v>
+        <v>1.033022813688213</v>
       </c>
       <c r="M91" t="inlineStr"/>
     </row>
@@ -4084,14 +4054,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4123,14 +4087,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4162,14 +4120,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4201,14 +4153,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4240,14 +4186,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4279,14 +4219,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4318,14 +4252,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4357,14 +4285,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4396,14 +4318,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4435,14 +4351,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4474,14 +4384,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4510,19 +4414,11 @@
         <v>38311.76444286297</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1096</v>
-      </c>
-      <c r="J103" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4551,17 +4447,11 @@
         <v>38099.79204286297</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4590,19 +4480,11 @@
         <v>38376.38844286298</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1091</v>
-      </c>
-      <c r="J105" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4631,19 +4513,11 @@
         <v>39561.90254286298</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>1096</v>
-      </c>
-      <c r="J106" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4672,19 +4546,11 @@
         <v>47007.52060335344</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>1100</v>
-      </c>
-      <c r="J107" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4713,19 +4579,11 @@
         <v>45805.5973638439</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1104</v>
-      </c>
-      <c r="J108" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4754,19 +4612,11 @@
         <v>45886.70986384391</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1097</v>
-      </c>
-      <c r="J109" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4795,19 +4645,11 @@
         <v>51143.86766384391</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1101</v>
-      </c>
-      <c r="J110" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4836,19 +4678,11 @@
         <v>51743.86766384391</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1106</v>
-      </c>
-      <c r="J111" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4877,17 +4711,11 @@
         <v>52396.47136384391</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4916,17 +4744,11 @@
         <v>54976.07606384391</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4955,17 +4777,11 @@
         <v>54305.70966384391</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4994,17 +4810,11 @@
         <v>54779.24956384391</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -5033,17 +4843,11 @@
         <v>54301.31646384391</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -5072,17 +4876,11 @@
         <v>59010.26366384391</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5111,17 +4909,11 @@
         <v>59010.26366384391</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5150,17 +4942,11 @@
         <v>59049.52316384391</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5189,17 +4975,11 @@
         <v>59049.52316384391</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5228,17 +5008,11 @@
         <v>59149.52316384391</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5267,17 +5041,11 @@
         <v>61309.47986384392</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5306,17 +5074,11 @@
         <v>61275.74246384392</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5345,17 +5107,11 @@
         <v>62877.09466384392</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5384,17 +5140,11 @@
         <v>64439.17176384392</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5423,17 +5173,11 @@
         <v>58672.70936349212</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5465,14 +5209,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5504,14 +5242,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5543,14 +5275,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5582,14 +5308,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5621,14 +5341,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5660,14 +5374,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5696,17 +5404,11 @@
         <v>58321.68635643744</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5735,17 +5437,11 @@
         <v>58221.68635643744</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5777,14 +5473,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5816,14 +5506,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5855,14 +5539,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5894,14 +5572,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5933,14 +5605,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5972,14 +5638,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -6011,14 +5671,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -6050,14 +5704,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6089,14 +5737,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6128,14 +5770,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6167,14 +5803,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6206,14 +5836,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6245,14 +5869,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6284,14 +5902,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6323,14 +5935,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6362,14 +5968,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6401,14 +6001,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6440,14 +6034,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6479,14 +6067,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6518,14 +6100,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6557,14 +6133,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6596,14 +6166,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6635,14 +6199,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6674,14 +6232,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6713,14 +6265,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6752,14 +6298,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6791,14 +6331,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6830,14 +6364,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6869,14 +6397,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6908,14 +6430,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6947,14 +6463,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6986,14 +6496,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -7025,14 +6529,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -7064,14 +6562,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7103,14 +6595,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7142,14 +6628,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7181,14 +6661,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7220,14 +6694,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7259,14 +6727,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7298,14 +6760,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7337,14 +6793,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7376,14 +6826,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7415,14 +6859,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7454,14 +6892,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7493,14 +6925,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7532,14 +6958,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7571,14 +6991,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7610,14 +7024,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7649,14 +7057,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7688,14 +7090,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7727,14 +7123,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7766,14 +7156,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7805,14 +7189,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7844,14 +7222,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7883,14 +7255,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7922,14 +7288,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7961,14 +7321,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -8000,14 +7354,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -8039,14 +7387,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -8078,14 +7420,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8117,14 +7453,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8156,14 +7486,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8195,14 +7519,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8234,14 +7552,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8273,14 +7585,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8312,14 +7618,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8351,14 +7651,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8390,14 +7684,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8429,14 +7717,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8468,14 +7750,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8507,14 +7783,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8546,14 +7816,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8585,14 +7849,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8624,14 +7882,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8663,14 +7915,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8702,14 +7948,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8741,14 +7981,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8780,14 +8014,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8819,14 +8047,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8858,14 +8080,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8897,14 +8113,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8936,14 +8146,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8975,14 +8179,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -9014,14 +8212,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -9053,14 +8245,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9092,14 +8278,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9131,14 +8311,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9170,14 +8344,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9209,14 +8377,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9245,23 +8407,15 @@
         <v>82055.92317173463</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>1052</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
-        <v>1.131882129277567</v>
-      </c>
-      <c r="M224" t="n">
-        <v>1.006666666666667</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9286,7 +8440,7 @@
         <v>82055.43927173462</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -9319,7 +8473,7 @@
         <v>82027.46507173462</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -9352,7 +8506,7 @@
         <v>81753.89577173462</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -9385,7 +8539,7 @@
         <v>83029.62767173462</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -9418,7 +8572,7 @@
         <v>82898.22777173462</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -9451,7 +8605,7 @@
         <v>84023.46687173462</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -9484,7 +8638,7 @@
         <v>84433.65997173463</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -9517,7 +8671,7 @@
         <v>83820.19627173463</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -9550,7 +8704,7 @@
         <v>83820.19627173463</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9583,7 +8737,7 @@
         <v>84102.10717173463</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9616,7 +8770,7 @@
         <v>83182.35227173463</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9649,7 +8803,7 @@
         <v>83031.96867173463</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9682,7 +8836,7 @@
         <v>82718.62177173463</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9715,7 +8869,7 @@
         <v>85450.42337173464</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9748,7 +8902,7 @@
         <v>85450.42337173464</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9781,7 +8935,7 @@
         <v>85450.42337173464</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9814,7 +8968,7 @@
         <v>85450.42337173464</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9847,7 +9001,7 @@
         <v>85450.42337173464</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9880,7 +9034,7 @@
         <v>85450.42337173464</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9913,7 +9067,7 @@
         <v>85384.83107173463</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9979,7 +9133,7 @@
         <v>80494.96357173464</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -10012,7 +9166,7 @@
         <v>78313.15807173464</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -10045,7 +9199,7 @@
         <v>78347.77817173464</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -10144,7 +9298,7 @@
         <v>82688.27567173463</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -10177,7 +9331,7 @@
         <v>82875.34447173463</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -10210,7 +9364,7 @@
         <v>82875.34447173463</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -10243,7 +9397,7 @@
         <v>82900.25807173463</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -10276,7 +9430,7 @@
         <v>82760.89394903959</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10309,7 +9463,7 @@
         <v>82765.40984903958</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10342,7 +9496,7 @@
         <v>82778.59394903958</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10375,7 +9529,7 @@
         <v>82778.59394903958</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10408,7 +9562,7 @@
         <v>80945.63484903958</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10441,7 +9595,7 @@
         <v>81656.44434903958</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10474,7 +9628,7 @@
         <v>81666.54434903958</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10507,7 +9661,7 @@
         <v>81644.67294903958</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10540,7 +9694,7 @@
         <v>81304.67294903958</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10573,7 +9727,7 @@
         <v>81399.97294903958</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10606,7 +9760,7 @@
         <v>81780.47294903958</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10672,7 +9826,7 @@
         <v>82450.93614903958</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10705,7 +9859,7 @@
         <v>82450.93614903958</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10738,7 +9892,7 @@
         <v>82450.93614903958</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10771,7 +9925,7 @@
         <v>82476.10314903958</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -11068,7 +10222,7 @@
         <v>85628.47384903958</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -11101,7 +10255,7 @@
         <v>85289.32384903959</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -11134,7 +10288,7 @@
         <v>85018.35314903958</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -11167,7 +10321,7 @@
         <v>85018.55314903958</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -11200,7 +10354,7 @@
         <v>84983.36864903958</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -11233,7 +10387,7 @@
         <v>85371.00864903958</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -11266,7 +10420,7 @@
         <v>85039.04874903958</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11299,7 +10453,7 @@
         <v>85039.04874903958</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11332,7 +10486,7 @@
         <v>84780.81224903958</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -11365,7 +10519,7 @@
         <v>84417.81224903958</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11398,7 +10552,7 @@
         <v>84089.01694903958</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11431,7 +10585,7 @@
         <v>83583.26234903958</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11464,7 +10618,7 @@
         <v>83602.09174903958</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11497,7 +10651,7 @@
         <v>83592.24094903958</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11530,7 +10684,7 @@
         <v>82830.50844903958</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11563,7 +10717,7 @@
         <v>82646.22124903958</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11596,7 +10750,7 @@
         <v>82656.22124903958</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11629,7 +10783,7 @@
         <v>82656.22124903958</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11662,7 +10816,7 @@
         <v>82847.16274903958</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11695,7 +10849,7 @@
         <v>81069.16424903958</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11728,7 +10882,7 @@
         <v>80946.32744903957</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11761,7 +10915,7 @@
         <v>80946.32744903957</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11794,7 +10948,7 @@
         <v>80945.32744903957</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11827,7 +10981,7 @@
         <v>80946.32744903957</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11860,7 +11014,7 @@
         <v>82266.87744903957</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11893,7 +11047,7 @@
         <v>79419.80574903957</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11926,7 +11080,7 @@
         <v>80464.29394903958</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11959,7 +11113,7 @@
         <v>79288.12364903958</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11992,7 +11146,7 @@
         <v>84117.04494903958</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -12025,7 +11179,7 @@
         <v>84117.04494903958</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -12058,7 +11212,7 @@
         <v>84113.76814903958</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -12091,7 +11245,7 @@
         <v>84495.54494903958</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -12421,7 +11575,7 @@
         <v>83601.46124903958</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12454,7 +11608,7 @@
         <v>83601.46124903958</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12487,7 +11641,7 @@
         <v>83953.65594903959</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12520,7 +11674,7 @@
         <v>83953.65594903959</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12553,7 +11707,7 @@
         <v>83943.85594903959</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12586,7 +11740,7 @@
         <v>83943.85594903959</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12619,7 +11773,7 @@
         <v>84240.07154903958</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12751,7 +11905,7 @@
         <v>84169.21394903958</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12784,7 +11938,7 @@
         <v>84168.21394903958</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12817,7 +11971,7 @@
         <v>83848.60654903958</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -14236,7 +13390,7 @@
         <v>86798.03119370164</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14269,7 +13423,7 @@
         <v>86854.63189370163</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14302,7 +13456,7 @@
         <v>87594.22109370164</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14335,7 +13489,7 @@
         <v>87594.22109370164</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14368,7 +13522,7 @@
         <v>89101.86999370164</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14401,7 +13555,7 @@
         <v>88946.74349370164</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14434,7 +13588,7 @@
         <v>90652.16499370163</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14467,7 +13621,7 @@
         <v>90652.16499370163</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14500,7 +13654,7 @@
         <v>90652.16499370163</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14533,7 +13687,7 @@
         <v>90652.16499370163</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14566,7 +13720,7 @@
         <v>90763.00039370163</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14599,7 +13753,7 @@
         <v>90587.64779370163</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14632,7 +13786,7 @@
         <v>90644.72669370162</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14665,7 +13819,7 @@
         <v>90642.79609370162</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14698,7 +13852,7 @@
         <v>91668.84249370162</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14731,7 +13885,7 @@
         <v>92733.74094444298</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14764,7 +13918,7 @@
         <v>93905.00932152056</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14797,7 +13951,7 @@
         <v>91366.40842152055</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14830,7 +13984,7 @@
         <v>92177.59172152056</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14863,7 +14017,7 @@
         <v>92177.59172152056</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14896,7 +14050,7 @@
         <v>91945.89172152056</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14929,7 +14083,7 @@
         <v>92055.48412152055</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14962,7 +14116,7 @@
         <v>92139.58412152056</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15226,7 +14380,7 @@
         <v>95255.24882152057</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15259,7 +14413,7 @@
         <v>98782.95062152056</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15292,7 +14446,7 @@
         <v>98782.95062152056</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15325,7 +14479,7 @@
         <v>98782.95062152056</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15358,7 +14512,7 @@
         <v>98750.34352152057</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15391,7 +14545,7 @@
         <v>98196.92972152057</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15424,7 +14578,7 @@
         <v>98179.72972152058</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15457,7 +14611,7 @@
         <v>97935.22972152058</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15490,7 +14644,7 @@
         <v>98414.32312152057</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15523,7 +14677,7 @@
         <v>98390.50392152058</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -16348,7 +15502,7 @@
         <v>95124.76972152058</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16414,7 +15568,7 @@
         <v>95124.76972152058</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16447,7 +15601,7 @@
         <v>95360.76972152058</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16876,7 +16030,7 @@
         <v>95898.07842152058</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -17008,7 +16162,7 @@
         <v>95816.46572152058</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -17041,7 +16195,7 @@
         <v>95543.04932152058</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17074,7 +16228,7 @@
         <v>92363.79742152058</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17107,7 +16261,7 @@
         <v>92042.29742152058</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17173,7 +16327,7 @@
         <v>92627.48782152058</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17206,7 +16360,7 @@
         <v>92566.90932152058</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17239,7 +16393,7 @@
         <v>92567.20232152058</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17272,7 +16426,7 @@
         <v>90024.51702152059</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17305,7 +16459,7 @@
         <v>90024.51702152059</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17338,7 +16492,7 @@
         <v>90111.10712152059</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17371,7 +16525,7 @@
         <v>89854.26462152059</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17404,7 +16558,7 @@
         <v>89838.02072152059</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17437,7 +16591,7 @@
         <v>90723.54862152059</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17470,7 +16624,7 @@
         <v>90722.97862152058</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17503,7 +16657,7 @@
         <v>91272.63412152058</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17536,7 +16690,7 @@
         <v>93690.42272152058</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17569,7 +16723,7 @@
         <v>93647.42272152058</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17602,7 +16756,7 @@
         <v>93647.42272152058</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17635,7 +16789,7 @@
         <v>94875.35692152058</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17668,7 +16822,7 @@
         <v>94389.67272152058</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17701,7 +16855,7 @@
         <v>94195.67272152058</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17734,7 +16888,7 @@
         <v>93936.72272152058</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17767,7 +16921,7 @@
         <v>93937.69642879489</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17800,7 +16954,7 @@
         <v>93926.72186739139</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17833,7 +16987,7 @@
         <v>93626.72186739139</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -18493,7 +17647,7 @@
         <v>95937.18976739138</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18526,7 +17680,7 @@
         <v>96079.65666739138</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18559,7 +17713,7 @@
         <v>96079.65666739138</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18592,7 +17746,7 @@
         <v>95499.62156739138</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18658,7 +17812,7 @@
         <v>95535.44536739138</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18691,7 +17845,7 @@
         <v>95536.52036739138</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18724,7 +17878,7 @@
         <v>95637.52036739138</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18757,7 +17911,7 @@
         <v>95384.40656739137</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18790,7 +17944,7 @@
         <v>95282.77446739137</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18823,7 +17977,7 @@
         <v>95382.77446739137</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18856,7 +18010,7 @@
         <v>94864.77446739137</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18889,7 +18043,7 @@
         <v>94993.41915917219</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18922,7 +18076,7 @@
         <v>94993.41915917219</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18955,7 +18109,7 @@
         <v>94972.76015917219</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18988,7 +18142,7 @@
         <v>92381.73985917219</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19021,7 +18175,7 @@
         <v>92389.22105917218</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19054,7 +18208,7 @@
         <v>92615.56615917219</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19087,7 +18241,7 @@
         <v>92547.56615917219</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19120,7 +18274,7 @@
         <v>90796.56375917219</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19153,7 +18307,7 @@
         <v>90594.2633591722</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19186,7 +18340,7 @@
         <v>91832.5882591722</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19219,7 +18373,7 @@
         <v>90215.84045917221</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19252,7 +18406,7 @@
         <v>87355.40425917221</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19285,7 +18439,7 @@
         <v>87272.67965917221</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19318,7 +18472,7 @@
         <v>87760.6317591722</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19351,7 +18505,7 @@
         <v>87339.36035917221</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19384,7 +18538,7 @@
         <v>87325.36035917221</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19417,7 +18571,7 @@
         <v>87325.36035917221</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19450,7 +18604,7 @@
         <v>87325.36035917221</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19483,7 +18637,7 @@
         <v>86441.36035917221</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19516,7 +18670,7 @@
         <v>86571.7508591722</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19549,7 +18703,7 @@
         <v>83832.0900591722</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19582,7 +18736,7 @@
         <v>83832.0900591722</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19593,6 +18747,6 @@
       <c r="M537" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest OMG.xlsx
+++ b/BackTest/2019-10-28 BackTest OMG.xlsx
@@ -1136,11 +1136,9 @@
         <v>24155.90204541241</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1039</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>1052</v>
       </c>
@@ -1177,11 +1175,9 @@
         <v>25500.32834541241</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1044</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>1052</v>
       </c>
@@ -1218,11 +1214,9 @@
         <v>25500.32834541241</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1051</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>1052</v>
       </c>
@@ -1259,11 +1253,9 @@
         <v>25771.60404541241</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1051</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>1052</v>
       </c>
@@ -1963,11 +1955,9 @@
         <v>23708.96064541241</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
         <v>1052</v>
       </c>
@@ -2082,11 +2072,9 @@
         <v>20024.88634541241</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
         <v>1052</v>
       </c>
@@ -2162,11 +2150,9 @@
         <v>19859.57014541241</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1048</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
         <v>1052</v>
       </c>
@@ -2203,11 +2189,9 @@
         <v>19412.56124541241</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1053</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
         <v>1052</v>
       </c>
@@ -2244,11 +2228,9 @@
         <v>19412.56124541241</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1052</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
         <v>1052</v>
       </c>
@@ -2285,11 +2267,9 @@
         <v>19498.77164541241</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1052</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
         <v>1052</v>
       </c>
@@ -2326,11 +2306,9 @@
         <v>19497.59454541241</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1053</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
         <v>1052</v>
       </c>
@@ -2367,11 +2345,9 @@
         <v>19464.48574541241</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1052</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
         <v>1052</v>
       </c>
@@ -2408,11 +2384,9 @@
         <v>19466.48574541241</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1051</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
         <v>1052</v>
       </c>
@@ -2449,11 +2423,9 @@
         <v>19466.23864541241</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1056</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
         <v>1052</v>
       </c>
@@ -2490,11 +2462,9 @@
         <v>20478.60774541241</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1047</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
         <v>1052</v>
       </c>
@@ -2531,11 +2501,9 @@
         <v>20370.52454541241</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1051</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
         <v>1052</v>
       </c>
@@ -2572,11 +2540,9 @@
         <v>20370.52454541241</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1047</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
         <v>1052</v>
       </c>
@@ -2613,11 +2579,9 @@
         <v>18067.1533454124</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1047</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
         <v>1052</v>
       </c>
@@ -2654,11 +2618,9 @@
         <v>18067.1533454124</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
         <v>1052</v>
       </c>
@@ -2695,11 +2657,9 @@
         <v>18064.6296454124</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
         <v>1052</v>
       </c>
@@ -2736,11 +2696,9 @@
         <v>18064.6296454124</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1041</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
         <v>1052</v>
       </c>
@@ -2777,11 +2735,9 @@
         <v>17957.5089454124</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1041</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
         <v>1052</v>
       </c>
@@ -2818,11 +2774,9 @@
         <v>18458.0216454124</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1039</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
         <v>1052</v>
       </c>
@@ -2859,11 +2813,9 @@
         <v>20252.1574454124</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1040</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
         <v>1052</v>
       </c>
@@ -2900,11 +2852,9 @@
         <v>20238.9004454124</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
         <v>1052</v>
       </c>
@@ -2941,11 +2891,9 @@
         <v>20593.6536454124</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1038</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
         <v>1052</v>
       </c>
@@ -2982,11 +2930,9 @@
         <v>20593.7536454124</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
         <v>1052</v>
       </c>
@@ -3023,11 +2969,9 @@
         <v>19629.2818454124</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1049</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
         <v>1052</v>
       </c>
@@ -3064,11 +3008,9 @@
         <v>19623.2818454124</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1048</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
         <v>1052</v>
       </c>
@@ -3105,11 +3047,9 @@
         <v>21561.2818454124</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1044</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
         <v>1052</v>
       </c>
@@ -3146,11 +3086,9 @@
         <v>21261.2818454124</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1057</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
         <v>1052</v>
       </c>
@@ -3187,11 +3125,9 @@
         <v>21261.2818454124</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1055</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
         <v>1052</v>
       </c>
@@ -3228,11 +3164,9 @@
         <v>21310.6271454124</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1055</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
         <v>1052</v>
       </c>
@@ -3269,11 +3203,9 @@
         <v>21712.4687454124</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1059</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
         <v>1052</v>
       </c>
@@ -4012,7 +3944,7 @@
         <v>38312.0109792266</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
@@ -4020,11 +3952,11 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.033022813688213</v>
+        <v>1</v>
       </c>
       <c r="M91" t="inlineStr"/>
     </row>
@@ -4054,8 +3986,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4087,8 +4025,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4120,8 +4064,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4153,8 +4103,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4186,8 +4142,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4219,8 +4181,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4252,8 +4220,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4285,8 +4259,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4318,8 +4298,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4351,8 +4337,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4384,8 +4376,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4414,11 +4412,17 @@
         <v>38311.76444286297</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4447,11 +4451,17 @@
         <v>38099.79204286297</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4480,11 +4490,17 @@
         <v>38376.38844286298</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4513,11 +4529,17 @@
         <v>39561.90254286298</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4546,11 +4568,17 @@
         <v>47007.52060335344</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4579,11 +4607,17 @@
         <v>45805.5973638439</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4612,11 +4646,17 @@
         <v>45886.70986384391</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4645,11 +4685,17 @@
         <v>51143.86766384391</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4678,11 +4724,17 @@
         <v>51743.86766384391</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4711,11 +4763,17 @@
         <v>52396.47136384391</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4744,11 +4802,17 @@
         <v>54976.07606384391</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4777,11 +4841,17 @@
         <v>54305.70966384391</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4810,11 +4880,17 @@
         <v>54779.24956384391</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4843,11 +4919,17 @@
         <v>54301.31646384391</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4876,11 +4958,17 @@
         <v>59010.26366384391</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4909,11 +4997,17 @@
         <v>59010.26366384391</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4942,11 +5036,17 @@
         <v>59049.52316384391</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4975,11 +5075,17 @@
         <v>59049.52316384391</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5008,11 +5114,17 @@
         <v>59149.52316384391</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5041,11 +5153,17 @@
         <v>61309.47986384392</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5074,11 +5192,17 @@
         <v>61275.74246384392</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5107,11 +5231,17 @@
         <v>62877.09466384392</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5140,11 +5270,17 @@
         <v>64439.17176384392</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5173,11 +5309,17 @@
         <v>58672.70936349212</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5209,8 +5351,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5242,8 +5390,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5275,8 +5429,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5308,8 +5468,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5341,8 +5507,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5374,8 +5546,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5404,11 +5582,17 @@
         <v>58321.68635643744</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5437,11 +5621,17 @@
         <v>58221.68635643744</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5473,8 +5663,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5506,8 +5702,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5539,8 +5741,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5572,8 +5780,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5605,8 +5819,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5638,8 +5858,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5671,8 +5897,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5704,8 +5936,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5737,8 +5975,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5770,8 +6014,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5803,8 +6053,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5836,8 +6092,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5869,8 +6131,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5902,8 +6170,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5935,8 +6209,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5968,8 +6248,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6001,8 +6287,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6034,8 +6326,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6067,8 +6365,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6100,8 +6404,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6133,8 +6443,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6166,8 +6482,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6199,8 +6521,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6232,8 +6560,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6265,8 +6599,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6298,8 +6638,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6331,8 +6677,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6364,8 +6716,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6397,8 +6755,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6430,8 +6794,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6463,8 +6833,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6496,8 +6872,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6529,8 +6911,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6562,8 +6950,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6595,8 +6989,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6628,8 +7028,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6661,8 +7067,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6694,8 +7106,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6727,8 +7145,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6760,8 +7184,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6793,8 +7223,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6826,8 +7262,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6859,8 +7301,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6892,8 +7340,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6925,8 +7379,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6958,8 +7418,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6991,8 +7457,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7024,8 +7496,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7057,8 +7535,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7090,8 +7574,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7123,8 +7613,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7156,8 +7652,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7189,8 +7691,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7222,8 +7730,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7255,8 +7769,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7288,8 +7808,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7321,8 +7847,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7354,8 +7886,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7387,8 +7925,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7420,8 +7964,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7453,8 +8003,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7486,8 +8042,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7519,8 +8081,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7552,8 +8120,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7585,8 +8159,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7618,8 +8198,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7651,8 +8237,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7684,8 +8276,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7717,8 +8315,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7750,8 +8354,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7783,8 +8393,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7816,8 +8432,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7849,8 +8471,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7882,8 +8510,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7915,8 +8549,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7948,8 +8588,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7981,8 +8627,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8014,8 +8666,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8047,8 +8705,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8080,8 +8744,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8113,8 +8783,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8146,8 +8822,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8179,8 +8861,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8212,8 +8900,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8245,8 +8939,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8275,15 +8975,23 @@
         <v>83856.16307173463</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+        <v>1.132832699619772</v>
+      </c>
+      <c r="M220" t="n">
+        <v>1.006666666666667</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8308,7 +9016,7 @@
         <v>83856.16307173463</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8341,7 +9049,7 @@
         <v>83856.16307173463</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8374,7 +9082,7 @@
         <v>83856.16307173463</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8407,7 +9115,7 @@
         <v>82055.92317173463</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8440,7 +9148,7 @@
         <v>82055.43927173462</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8935,7 +9643,7 @@
         <v>85450.42337173464</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8968,7 +9676,7 @@
         <v>85450.42337173464</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -13852,7 +14560,7 @@
         <v>91668.84249370162</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13885,7 +14593,7 @@
         <v>92733.74094444298</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13918,7 +14626,7 @@
         <v>93905.00932152056</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13951,7 +14659,7 @@
         <v>91366.40842152055</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13984,7 +14692,7 @@
         <v>92177.59172152056</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14017,7 +14725,7 @@
         <v>92177.59172152056</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14050,7 +14758,7 @@
         <v>91945.89172152056</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14083,7 +14791,7 @@
         <v>92055.48412152055</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14116,7 +14824,7 @@
         <v>92139.58412152056</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14149,7 +14857,7 @@
         <v>93693.18762152056</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14182,7 +14890,7 @@
         <v>93693.18762152056</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14215,7 +14923,7 @@
         <v>99368.17272152056</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14248,7 +14956,7 @@
         <v>99368.17272152056</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14281,7 +14989,7 @@
         <v>97666.21162152056</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14314,7 +15022,7 @@
         <v>96419.48442152057</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14347,7 +15055,7 @@
         <v>95473.22222152057</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14380,7 +15088,7 @@
         <v>95255.24882152057</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14413,7 +15121,7 @@
         <v>98782.95062152056</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14446,7 +15154,7 @@
         <v>98782.95062152056</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14479,7 +15187,7 @@
         <v>98782.95062152056</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14512,7 +15220,7 @@
         <v>98750.34352152057</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14545,7 +15253,7 @@
         <v>98196.92972152057</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14578,7 +15286,7 @@
         <v>98179.72972152058</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14710,7 +15418,7 @@
         <v>98390.50392152058</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
